--- a/knowledge_data.xlsx
+++ b/knowledge_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\All.Code\knowledge_base_website\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87126864-5710-489E-BAC6-911B2EC9CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Knowledge Base Details"/>
+    <sheet name="Knowledge Base Details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>Title</t>
   </si>
@@ -31,7 +37,7 @@
     <t>USMEPCOM Regulation 601-4 Overview</t>
   </si>
   <si>
-    <t>R-0601-004</t>
+    <t>USMEPCOM Regulation 601-4.pdf</t>
   </si>
   <si>
     <t>documentation</t>
@@ -250,7 +256,7 @@
     <t>Fresno Armory Site Overview</t>
   </si>
   <si>
-    <t xml:space="preserve">Procedures for Fresno Armory </t>
+    <t>Procedures_Fresno_Armory.pdf</t>
   </si>
   <si>
     <t>Procedures for Fresno Armory testing site at 5575 East Airways Blvd, Fresno, CA 93727.</t>
@@ -379,9 +385,6 @@
     <t>Abandoned test</t>
   </si>
   <si>
-    <t>601-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">At a school session if test is Abandoned fill out 601-4 selecting the proper reason. </t>
   </si>
   <si>
@@ -389,14 +392,70 @@
   </si>
   <si>
     <t xml:space="preserve">If for some reason the student is unable to complete the test and it is an approved reason the school will need to reschedual with Meps and have the test completed with in 10 days. </t>
+  </si>
+  <si>
+    <t>RECEIPT OF ARMED SERVICES VOCATIONAL APTITUDE BATTERY (ASVAB) BOOKLETS</t>
+  </si>
+  <si>
+    <t>USMEPCOM FORM 601-4-4-R-E, JUL 2005.pdf</t>
+  </si>
+  <si>
+    <t>STUDENT TEST ANSWER SHEET DISCREPANCY LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel form </t>
+  </si>
+  <si>
+    <t>OF1164-17c.pdf</t>
+  </si>
+  <si>
+    <t>USMEPCOM FORM 601-4-R-E, April 2024.pdf</t>
+  </si>
+  <si>
+    <t>EDUCATIONAL STAFF AGREEMENT</t>
+  </si>
+  <si>
+    <t>USMEPCOM FORM 601-4-12-R-E,.pdf</t>
+  </si>
+  <si>
+    <t>USMEPCOM Regulation</t>
+  </si>
+  <si>
+    <t>USMEPCOM Regulation 611-1.pdf</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>UMF 690-13-5-E USMEPCOM Time and Attendance Record Sheet.pdf</t>
+  </si>
+  <si>
+    <t>Who can test</t>
+  </si>
+  <si>
+    <t>Non- Prior Service applicants at least 17 years of age.</t>
+  </si>
+  <si>
+    <t>Retest Definition</t>
+  </si>
+  <si>
+    <t>Any ASVAB test, including confirmation and student tests, when the student test is used for the enlistment purposes, within 2 years of any previous ASVAB test is a retest and will be counted toward the retest policy</t>
+  </si>
+  <si>
+    <t>Retest Requirements</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>First  and second retest, can retest after 1 calendar month has elapsed, Third and subsequent retests can be administered after 6 calendar months have elapsed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,12 +476,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -433,17 +486,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc0c0c0"/>
+        <fgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,31 +525,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFdadcdd"/>
+        <color rgb="FFDADCDD"/>
       </left>
       <right style="medium">
-        <color rgb="FFdadcdd"/>
+        <color rgb="FFDADCDD"/>
       </right>
       <top style="medium">
-        <color rgb="FFdadcdd"/>
+        <color rgb="FFDADCDD"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFdadcdd"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFdadcdd"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFdadcdd"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFDADCDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,51 +545,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDADCDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDADCDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -562,10 +618,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -603,71 +659,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,7 +751,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -718,11 +774,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -731,13 +787,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -747,7 +803,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -756,7 +812,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -765,7 +821,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -773,10 +829,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -841,23 +897,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="D66" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="8" width="56.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="56.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="56.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="224.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="70.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="56.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="224.7265625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,802 +928,963 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="4" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="7" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>124</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
